--- a/qiita/squashについて.xlsx
+++ b/qiita/squashについて.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="react" sheetId="1" r:id="rId1"/>
     <sheet name="テスト" sheetId="2" r:id="rId2"/>
     <sheet name="qiita" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>CD</t>
     <phoneticPr fontId="1"/>
@@ -224,7 +225,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="メイリオ"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -235,7 +236,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="メイリオ"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -252,7 +253,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="メイリオ"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -263,7 +264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="メイリオ"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -326,22 +327,86 @@
     <t>npm install -D @types/styled-components</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Reactのバージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リリース日</t>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新機能</t>
+    <rPh sb="0" eb="3">
+      <t>シンキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段階的な React のアップグレードを可能にします。
+他のテクノロジによって構築されているアプリ内に React を埋め込むことも容易になります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もうすぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">フラグメント
+エラー境界：try-catchステートメントのよう
+ポータル：子を親コンポーネントのDOM階層の外部に存在するDOMノードにレンダリング
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>React Hooks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数コンポーネント追加
+React.memo、React.lazy、React.Suspenceの追加</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="メイリオ"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -349,7 +414,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="メイリオ"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -369,7 +434,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -377,21 +442,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -399,11 +476,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -422,6 +514,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="31" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -477,76 +596,16 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="メイリオTimesNewRoman">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="Times New Roman"/>
+        <a:ea typeface="メイリオ"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="Times New Roman"/>
+        <a:ea typeface="メイリオ"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -725,15 +784,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:3">
@@ -758,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27">
+    <row r="8" spans="1:3" ht="37.5">
       <c r="A8" s="2">
         <v>2.1</v>
       </c>
@@ -793,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75">
+    <row r="13" spans="1:3" ht="24.75">
       <c r="A13" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -845,14 +904,14 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="40.5">
+    <row r="2" spans="2:4" ht="56.25">
       <c r="B2" s="2">
         <v>3</v>
       </c>
@@ -946,7 +1005,7 @@
       <c r="B15" s="2"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" ht="40.5">
+    <row r="16" spans="2:4" ht="56.25">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -957,7 +1016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="40.5">
+    <row r="17" spans="2:4" ht="56.25">
       <c r="B17" s="2"/>
       <c r="C17" s="7" t="s">
         <v>31</v>
@@ -980,10 +1039,10 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="42.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -991,7 +1050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="40.5">
+    <row r="3" spans="1:3" ht="56.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1001,6 +1060,121 @@
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="15.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="41" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="10"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:5" ht="131.25">
+      <c r="B7" s="10">
+        <v>16</v>
+      </c>
+      <c r="C7" s="14">
+        <v>43004</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="2:5" ht="56.25">
+      <c r="B8" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="C8" s="14">
+        <v>43403</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="16">
+        <v>16.8</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43502</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="2:5" ht="56.25">
+      <c r="B10" s="10">
+        <v>17</v>
+      </c>
+      <c r="C10" s="15">
+        <v>44124</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="10">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
